--- a/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
+++ b/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARVP\au_hardware\internal_env_board\internal_env_board2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyle\Documents\AVRP repository\au_hardware\internal_env_board\internal_env_board2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C6BB1A-7FB6-4551-891D-32C787919B87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44844C58-25A9-459B-80F8-58306FFE1E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>Shematic Reference Number</t>
   </si>
@@ -312,30 +312,12 @@
     <t>C6</t>
   </si>
   <si>
-    <t>8 bit shift register - DIP package</t>
-  </si>
-  <si>
-    <t>560 Ohm Resistor</t>
-  </si>
-  <si>
-    <t>0.1 uF cap</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
     <t>74HC595D,118</t>
   </si>
   <si>
     <t>https://assets.nexperia.com/documents/data-sheet/74HC_HCT595.pdf</t>
   </si>
   <si>
-    <t>ERJ-PB6D5600V</t>
-  </si>
-  <si>
-    <t>ERJ-PB3, PB6 Series, High Precision Datasheet</t>
-  </si>
-  <si>
     <t>CL21F104ZBCNNNC</t>
   </si>
   <si>
@@ -345,12 +327,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>16x2 LCD</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/datasheets/HD44780.pdf , https://cdn-shop.adafruit.com/product-files/181/p181.pdf</t>
-  </si>
-  <si>
     <t>6130xx11121 Drawing</t>
   </si>
   <si>
@@ -369,24 +345,12 @@
     <t>K104K10X7RF5UH5</t>
   </si>
   <si>
-    <t xml:space="preserve">JP5 </t>
-  </si>
-  <si>
-    <t>Ribbon Cable</t>
-  </si>
-  <si>
     <t>111-2413-020</t>
   </si>
   <si>
-    <t>Ribbon Cable Connector</t>
-  </si>
-  <si>
     <t>4-643814-6</t>
   </si>
   <si>
-    <t>Connector Stress Strain Relief</t>
-  </si>
-  <si>
     <t>1-643075-6</t>
   </si>
   <si>
@@ -402,17 +366,134 @@
     <t>N/A (LCDs)</t>
   </si>
   <si>
-    <t>https://cdn-shop.adafruit.com/product-files/181/p181.pdf</t>
-  </si>
-  <si>
-    <t>10k Potentiometer (comes with the LCDs)</t>
+    <t>SM-42TA203</t>
+  </si>
+  <si>
+    <t>SM-42 &amp; 43 Series Datasheet</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>JP6</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>TRANS NPN 40V 0.2A SOT23</t>
+  </si>
+  <si>
+    <t>MMBT3904</t>
+  </si>
+  <si>
+    <t>2N3904, MMBT3904, PZT3904 Datasheet</t>
+  </si>
+  <si>
+    <t>02+02 DIL VERT PIN HDR</t>
+  </si>
+  <si>
+    <t>M20-9760246</t>
+  </si>
+  <si>
+    <t>M20-976yyyy Drawing</t>
+  </si>
+  <si>
+    <t>RES SMD 47K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RC0805FR-0747KL</t>
+  </si>
+  <si>
+    <t>RC Series, L Datasheet</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RC0805JR-074K7L</t>
+  </si>
+  <si>
+    <t>TC1602A-09T</t>
+  </si>
+  <si>
+    <t>TRANS NPN 40V 0.2A TO-92</t>
+  </si>
+  <si>
+    <t>2N3904BU</t>
+  </si>
+  <si>
+    <t>RES 4.7K OHM 1/4W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>CF14JT4K70</t>
+  </si>
+  <si>
+    <t>CF, CFM Series</t>
+  </si>
+  <si>
+    <t>RES 47K OHM 1/4W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>CF14JT47K0</t>
+  </si>
+  <si>
+    <t>IC SHIFT REGISTER 8BIT 16SOIC</t>
+  </si>
+  <si>
+    <t>RES SMD 560 OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RC0805JR-07560RL</t>
+  </si>
+  <si>
+    <t>TRIMMER 20KOHM 0.25W J LEAD SIDE</t>
+  </si>
+  <si>
+    <t>CONN HEADER 16 POS 2.54</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V Y5V 0805</t>
+  </si>
+  <si>
+    <t>STANDARD LCD 16X2 + EXTRAS</t>
+  </si>
+  <si>
+    <t>IC 8-BIT SHIFT REGISTER 16-DIP</t>
+  </si>
+  <si>
+    <t>RES 560 OHM 1/4W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R RADIAL</t>
+  </si>
+  <si>
+    <t>CBL RIBN 20COND MULTICOLOR 5'</t>
+  </si>
+  <si>
+    <t>CONN RECEPT 16POS 24AWG MTA100</t>
+  </si>
+  <si>
+    <t>CONN COVER STRAIN RELIEF 16 POS</t>
+  </si>
+  <si>
+    <t>3362P-1-203LF</t>
+  </si>
+  <si>
+    <t>3362 Series</t>
+  </si>
+  <si>
+    <t>TRIMMER 20K OHM 0.5W PC PIN TOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,17 +516,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,7 +531,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -479,12 +554,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,25 +595,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,15 +609,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -813,32 +919,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -885,7 +991,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -909,7 +1015,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -933,7 +1039,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -957,7 +1063,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -981,7 +1087,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1005,7 +1111,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1029,7 +1135,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -1053,14 +1159,14 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>39281023</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1077,7 +1183,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -1101,7 +1207,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1125,7 +1231,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1149,7 +1255,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1173,7 +1279,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1197,7 +1303,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -1221,7 +1327,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -1245,7 +1351,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -1269,7 +1375,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -1293,7 +1399,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1317,7 +1423,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1341,7 +1447,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -1365,7 +1471,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
@@ -1389,317 +1495,469 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="6">
         <v>0.65</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>94</v>
+      <c r="B26" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="F26" s="8">
+        <v>138</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="6">
         <v>6</v>
       </c>
-      <c r="G26" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="G26" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="11">
         <v>61301611121</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="6">
         <v>1.29</v>
       </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
         <v>1.29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="19">
+        <v>181</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="6">
+        <v>14.28</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="B39" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F39" s="6">
+        <v>6</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="17">
-        <v>181</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="D41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="6">
+        <v>22.01</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="8">
-        <v>14.28</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="D42" s="7">
+        <v>643814</v>
+      </c>
+      <c r="E42" s="6">
+        <v>4.54</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="7">
+        <v>643075</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F34" s="8">
-        <v>6</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="18">
-        <v>61301611121</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1.29</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="8">
-        <v>22.01</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
-        <v>22.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="10">
-        <v>643814</v>
-      </c>
-      <c r="E39" s="8">
-        <v>4.54</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-      <c r="G39" s="8">
-        <v>9.08</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="10">
-        <v>643075</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1.31</v>
-      </c>
-      <c r="F40" s="8">
-        <v>2</v>
-      </c>
-      <c r="G40" s="8">
-        <v>2.61</v>
+      <c r="E46" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -1731,17 +1989,25 @@
     <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="D25" r:id="rId23" xr:uid="{3351DE6A-696D-4930-A7F0-EEAC89FE5E4D}"/>
     <hyperlink ref="D29" r:id="rId24" xr:uid="{484C9603-5306-41D1-80A8-846D2759712C}"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://industrial.panasonic.com/cdbs/www-data/pdf/RDM0000/AOA0000C328.pdf" xr:uid="{235D67A7-AF17-49DF-8540-EC27D3B31A1D}"/>
-    <hyperlink ref="D28" r:id="rId26" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf" xr:uid="{A4FD35A8-382F-4C86-9E06-5143FCB65F6D}"/>
-    <hyperlink ref="D33" r:id="rId27" display="http://www.ti.com/lit/ds/symlink/sn74hc595.pdf" xr:uid="{06113F77-C44E-4230-9895-41937B419CB7}"/>
-    <hyperlink ref="D35" r:id="rId28" display="http://www.vishay.com/docs/45171/kseries.pdf" xr:uid="{E5EF8C94-8FF3-4CA8-9B9E-87F6E9DB4092}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{FC8D83A5-9C1A-4F8F-B14D-32D28D960C5F}"/>
-    <hyperlink ref="D37" r:id="rId30" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf" xr:uid="{A4FD35A8-382F-4C86-9E06-5143FCB65F6D}"/>
-    <hyperlink ref="D39" r:id="rId31" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{E3A30A47-2BA3-4731-BBCD-B356DAFFADB8}"/>
-    <hyperlink ref="D40" r:id="rId32" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{8B16C1D1-DD20-434B-8323-AF5F2EDA724D}"/>
-    <hyperlink ref="D27" r:id="rId33" xr:uid="{539E45F2-FB86-48A2-A893-55EE399073A4}"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf" xr:uid="{A4FD35A8-382F-4C86-9E06-5143FCB65F6D}"/>
+    <hyperlink ref="D38" r:id="rId26" display="http://www.ti.com/lit/ds/symlink/sn74hc595.pdf" xr:uid="{06113F77-C44E-4230-9895-41937B419CB7}"/>
+    <hyperlink ref="D40" r:id="rId27" display="http://www.vishay.com/docs/45171/kseries.pdf" xr:uid="{E5EF8C94-8FF3-4CA8-9B9E-87F6E9DB4092}"/>
+    <hyperlink ref="D39" r:id="rId28" xr:uid="{FC8D83A5-9C1A-4F8F-B14D-32D28D960C5F}"/>
+    <hyperlink ref="D42" r:id="rId29" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{E3A30A47-2BA3-4731-BBCD-B356DAFFADB8}"/>
+    <hyperlink ref="D43" r:id="rId30" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{8B16C1D1-DD20-434B-8323-AF5F2EDA724D}"/>
+    <hyperlink ref="D27" r:id="rId31" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf" xr:uid="{D60C1852-FE22-4206-B3C9-619A0EF72358}"/>
+    <hyperlink ref="D34" r:id="rId32" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf" xr:uid="{9523DBC2-EEE9-478C-ADAF-70DD47AC3E92}"/>
+    <hyperlink ref="D33" r:id="rId33" display="https://cdn.harwin.com/pdfs/M20-976.pdf" xr:uid="{34521EE4-CF7E-4C34-8BD1-8EFE6C6D15C2}"/>
+    <hyperlink ref="D32" r:id="rId34" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{B2D11C3C-0234-4231-ABA9-DAD532102B77}"/>
+    <hyperlink ref="D31" r:id="rId35" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{31B22529-345B-4FCB-8E6C-90977DD52DC7}"/>
+    <hyperlink ref="D30" r:id="rId36" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf" xr:uid="{7C648116-FDBE-4031-A56C-760A7B342F84}"/>
+    <hyperlink ref="D46" r:id="rId37" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf" xr:uid="{522BDBC1-95E2-4FE2-8E78-6926BF8F4AB5}"/>
+    <hyperlink ref="D44" r:id="rId38" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf" xr:uid="{B853B86B-D505-494B-B1DA-2C9007C74A6B}"/>
+    <hyperlink ref="D45" r:id="rId39" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf" xr:uid="{D72F90B3-B09E-4086-903B-D01CF76A5649}"/>
+    <hyperlink ref="D26" r:id="rId40" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{5A507544-7488-44B1-950F-17D15B2ACC05}"/>
+    <hyperlink ref="D47" r:id="rId41" display="https://www.bourns.com/docs/Product-Datasheets/3362.pdf" xr:uid="{5D4ECA67-0725-426A-95DE-6F19F5E62251}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
+++ b/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyle\Documents\AVRP repository\au_hardware\internal_env_board\internal_env_board2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44844C58-25A9-459B-80F8-58306FFE1E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8308D9C-3ED7-479B-A466-3711DD01D2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
   <si>
     <t>Shematic Reference Number</t>
   </si>
@@ -487,13 +487,22 @@
   </si>
   <si>
     <t>TRIMMER 20K OHM 0.5W PC PIN TOP</t>
+  </si>
+  <si>
+    <t>AMP SHUNT ASS'Y</t>
+  </si>
+  <si>
+    <t>1-881545-1</t>
+  </si>
+  <si>
+    <t>881545 Drawing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +530,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -583,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,9 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,6 +650,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -919,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,15 +950,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1499,13 +1515,13 @@
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="6">
@@ -1522,13 +1538,13 @@
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E26" s="6">
@@ -1542,16 +1558,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="6">
@@ -1568,13 +1584,13 @@
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="11">
         <v>61301611121</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="6">
@@ -1591,13 +1607,13 @@
       <c r="A29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="6">
@@ -1614,13 +1630,13 @@
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>181</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E30" s="6">
@@ -1637,22 +1653,22 @@
       <c r="A31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>0.15</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15">
         <v>0.15</v>
       </c>
     </row>
@@ -1660,22 +1676,22 @@
       <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>0.15</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
         <v>0.15</v>
       </c>
     </row>
@@ -1683,22 +1699,22 @@
       <c r="A33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>0.27</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
         <v>0.27</v>
       </c>
     </row>
@@ -1706,10 +1722,10 @@
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1718,7 +1734,7 @@
       <c r="E34" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -1734,7 +1750,7 @@
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>143</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -1757,7 +1773,7 @@
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -1780,7 +1796,7 @@
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>145</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -1803,7 +1819,7 @@
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -1826,7 +1842,7 @@
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -1849,7 +1865,7 @@
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -1872,22 +1888,22 @@
       <c r="A44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>132</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>0.15</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
         <v>0.15</v>
       </c>
     </row>
@@ -1895,22 +1911,22 @@
       <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>0.15</v>
       </c>
-      <c r="F45" s="16">
-        <v>1</v>
-      </c>
-      <c r="G45" s="16">
+      <c r="F45" s="15">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15">
         <v>0.15</v>
       </c>
     </row>
@@ -1918,22 +1934,22 @@
       <c r="A46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>130</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>0.3</v>
       </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16">
+      <c r="F46" s="15">
+        <v>1</v>
+      </c>
+      <c r="G46" s="15">
         <v>0.3</v>
       </c>
     </row>
@@ -1941,10 +1957,10 @@
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>149</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -1958,6 +1974,29 @@
       </c>
       <c r="G47" s="6">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="F48" s="15">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -2006,8 +2045,9 @@
     <hyperlink ref="D45" r:id="rId39" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf" xr:uid="{D72F90B3-B09E-4086-903B-D01CF76A5649}"/>
     <hyperlink ref="D26" r:id="rId40" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{5A507544-7488-44B1-950F-17D15B2ACC05}"/>
     <hyperlink ref="D47" r:id="rId41" display="https://www.bourns.com/docs/Product-Datasheets/3362.pdf" xr:uid="{5D4ECA67-0725-426A-95DE-6F19F5E62251}"/>
+    <hyperlink ref="D48" r:id="rId42" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=881545&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{51B0B09B-6DDC-4FE8-A981-9C937067B97E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
+++ b/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyle\Documents\AVRP repository\au_hardware\internal_env_board\internal_env_board2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Business\ARVP\au_hardware\internal_env_board\internal_env_board2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8308D9C-3ED7-479B-A466-3711DD01D2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,7 +500,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,10 +649,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,15 +949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1741,6 +1740,12 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f>SUM(G3:G34)</f>
+        <v>58.129000000000005</v>
+      </c>
+    </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
@@ -1980,10 +1985,10 @@
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>153</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2004,48 +2009,48 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{3351DE6A-696D-4930-A7F0-EEAC89FE5E4D}"/>
-    <hyperlink ref="D29" r:id="rId24" xr:uid="{484C9603-5306-41D1-80A8-846D2759712C}"/>
-    <hyperlink ref="D28" r:id="rId25" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf" xr:uid="{A4FD35A8-382F-4C86-9E06-5143FCB65F6D}"/>
-    <hyperlink ref="D38" r:id="rId26" display="http://www.ti.com/lit/ds/symlink/sn74hc595.pdf" xr:uid="{06113F77-C44E-4230-9895-41937B419CB7}"/>
-    <hyperlink ref="D40" r:id="rId27" display="http://www.vishay.com/docs/45171/kseries.pdf" xr:uid="{E5EF8C94-8FF3-4CA8-9B9E-87F6E9DB4092}"/>
-    <hyperlink ref="D39" r:id="rId28" xr:uid="{FC8D83A5-9C1A-4F8F-B14D-32D28D960C5F}"/>
-    <hyperlink ref="D42" r:id="rId29" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{E3A30A47-2BA3-4731-BBCD-B356DAFFADB8}"/>
-    <hyperlink ref="D43" r:id="rId30" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{8B16C1D1-DD20-434B-8323-AF5F2EDA724D}"/>
-    <hyperlink ref="D27" r:id="rId31" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf" xr:uid="{D60C1852-FE22-4206-B3C9-619A0EF72358}"/>
-    <hyperlink ref="D34" r:id="rId32" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf" xr:uid="{9523DBC2-EEE9-478C-ADAF-70DD47AC3E92}"/>
-    <hyperlink ref="D33" r:id="rId33" display="https://cdn.harwin.com/pdfs/M20-976.pdf" xr:uid="{34521EE4-CF7E-4C34-8BD1-8EFE6C6D15C2}"/>
-    <hyperlink ref="D32" r:id="rId34" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{B2D11C3C-0234-4231-ABA9-DAD532102B77}"/>
-    <hyperlink ref="D31" r:id="rId35" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{31B22529-345B-4FCB-8E6C-90977DD52DC7}"/>
-    <hyperlink ref="D30" r:id="rId36" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf" xr:uid="{7C648116-FDBE-4031-A56C-760A7B342F84}"/>
-    <hyperlink ref="D46" r:id="rId37" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf" xr:uid="{522BDBC1-95E2-4FE2-8E78-6926BF8F4AB5}"/>
-    <hyperlink ref="D44" r:id="rId38" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf" xr:uid="{B853B86B-D505-494B-B1DA-2C9007C74A6B}"/>
-    <hyperlink ref="D45" r:id="rId39" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf" xr:uid="{D72F90B3-B09E-4086-903B-D01CF76A5649}"/>
-    <hyperlink ref="D26" r:id="rId40" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf" xr:uid="{5A507544-7488-44B1-950F-17D15B2ACC05}"/>
-    <hyperlink ref="D47" r:id="rId41" display="https://www.bourns.com/docs/Product-Datasheets/3362.pdf" xr:uid="{5D4ECA67-0725-426A-95DE-6F19F5E62251}"/>
-    <hyperlink ref="D48" r:id="rId42" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=881545&amp;DocType=Customer+Drawing&amp;DocLang=English" xr:uid="{51B0B09B-6DDC-4FE8-A981-9C937067B97E}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D14" r:id="rId17"/>
+    <hyperlink ref="D15" r:id="rId18"/>
+    <hyperlink ref="D21" r:id="rId19"/>
+    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D25" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf"/>
+    <hyperlink ref="D38" r:id="rId26" display="http://www.ti.com/lit/ds/symlink/sn74hc595.pdf"/>
+    <hyperlink ref="D40" r:id="rId27" display="http://www.vishay.com/docs/45171/kseries.pdf"/>
+    <hyperlink ref="D39" r:id="rId28"/>
+    <hyperlink ref="D42" r:id="rId29" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D43" r:id="rId30" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D27" r:id="rId31" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf"/>
+    <hyperlink ref="D34" r:id="rId32" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf"/>
+    <hyperlink ref="D33" r:id="rId33" display="https://cdn.harwin.com/pdfs/M20-976.pdf"/>
+    <hyperlink ref="D32" r:id="rId34" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
+    <hyperlink ref="D31" r:id="rId35" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
+    <hyperlink ref="D30" r:id="rId36" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf"/>
+    <hyperlink ref="D46" r:id="rId37" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf"/>
+    <hyperlink ref="D44" r:id="rId38" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
+    <hyperlink ref="D45" r:id="rId39" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
+    <hyperlink ref="D26" r:id="rId40" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
+    <hyperlink ref="D47" r:id="rId41" display="https://www.bourns.com/docs/Product-Datasheets/3362.pdf"/>
+    <hyperlink ref="D48" r:id="rId42" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=881545&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId43"/>

--- a/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
+++ b/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
-  <si>
-    <t>Shematic Reference Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
   <si>
     <t>Part Description</t>
   </si>
@@ -140,9 +137,6 @@
     <t>http://www.sullinscorp.com/drawings/78_P(N)PxCxxxLFBN-RC,_10492-H.pdf</t>
   </si>
   <si>
-    <t>Internal Sensor Board Parts</t>
-  </si>
-  <si>
     <t>LED GREEN CLEAR 1206 SMD</t>
   </si>
   <si>
@@ -380,18 +374,6 @@
     <t>JP6</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>TRANS NPN 40V 0.2A SOT23</t>
-  </si>
-  <si>
-    <t>MMBT3904</t>
-  </si>
-  <si>
-    <t>2N3904, MMBT3904, PZT3904 Datasheet</t>
-  </si>
-  <si>
     <t>02+02 DIL VERT PIN HDR</t>
   </si>
   <si>
@@ -401,45 +383,15 @@
     <t>M20-976yyyy Drawing</t>
   </si>
   <si>
-    <t>RES SMD 47K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RC0805FR-0747KL</t>
-  </si>
-  <si>
     <t>RC Series, L Datasheet</t>
   </si>
   <si>
-    <t>RES SMD 4.7K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RC0805JR-074K7L</t>
-  </si>
-  <si>
     <t>TC1602A-09T</t>
   </si>
   <si>
-    <t>TRANS NPN 40V 0.2A TO-92</t>
-  </si>
-  <si>
-    <t>2N3904BU</t>
-  </si>
-  <si>
-    <t>RES 4.7K OHM 1/4W 5% AXIAL</t>
-  </si>
-  <si>
-    <t>CF14JT4K70</t>
-  </si>
-  <si>
     <t>CF, CFM Series</t>
   </si>
   <si>
-    <t>RES 47K OHM 1/4W 5% AXIAL</t>
-  </si>
-  <si>
-    <t>CF14JT47K0</t>
-  </si>
-  <si>
     <t>IC SHIFT REGISTER 8BIT 16SOIC</t>
   </si>
   <si>
@@ -495,13 +447,100 @@
   </si>
   <si>
     <t>881545 Drawing</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>RES SMD 62 OHM 5% 1/2W 0805</t>
+  </si>
+  <si>
+    <t>ERJ-P06J620V</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDO0000/AOA0000C331.pdf</t>
+  </si>
+  <si>
+    <t>RES 62 OHM 1/2W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>CFR-50JB-52-62R</t>
+  </si>
+  <si>
+    <t>http://www.yageo.com/NewPortal/yageodocoutput?fileName=/pdf/throughhole/Yageo_LR_CFR_2013.pdf</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 20V 2.3A SOT23</t>
+  </si>
+  <si>
+    <t>BSS806NH6327XTSA1</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/BSS806N_Rev2.3_.pdf?folderId=db3a3043156fd573011622e10b5c1f67&amp;fileId=db3a304330f686060131185f0553451c</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 20V 530MA TO92-3</t>
+  </si>
+  <si>
+    <t>TN0702N3-G</t>
+  </si>
+  <si>
+    <t>http://www.microchip.com/mymicrochip/filehandler.aspx?ddocname=en570658</t>
+  </si>
+  <si>
+    <t>RES 10 OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD10R0</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-rncp.pdf</t>
+  </si>
+  <si>
+    <t>RES SMD 1M OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>ERA-6AEB105V</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDM0000/AOA0000C307.pdf</t>
+  </si>
+  <si>
+    <t>RES 10 OHM 2W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>FW20A10R0JA</t>
+  </si>
+  <si>
+    <t>RES 1M OHM 1W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>VR68000001004JAC00</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/28907/vr25vr37vr68.pdf</t>
+  </si>
+  <si>
+    <t>Schematic Reference Number</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part Description </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,23 +557,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,7 +578,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -569,17 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -592,12 +614,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,56 +715,802 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -669,6 +1521,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G35" totalsRowCount="1" headerRowDxfId="21" headerRowBorderDxfId="29" tableBorderDxfId="30">
+  <autoFilter ref="A1:G35"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Schematic Reference Number" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Part Description" dataDxfId="27" totalsRowDxfId="19"/>
+    <tableColumn id="3" name="Manufacturer Part Number" dataDxfId="26" totalsRowDxfId="18"/>
+    <tableColumn id="4" name="Datasheet" dataDxfId="25" totalsRowDxfId="17" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="Price" dataDxfId="24" totalsRowDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="23" totalsRowDxfId="15"/>
+    <tableColumn id="7" name="Total Cost" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="14" dataCellStyle="Currency">
+      <calculatedColumnFormula>F2*E2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(G2:G34)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A37:G50" totalsRowCount="1">
+  <autoFilter ref="A37:G50"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Components for Testing" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Part Description " dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Manufacturer Part Number" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Datasheet" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="Price" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Total Cost" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(G38:G49)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -934,368 +1823,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G9" si="0">F2*E2</f>
+        <v>0.34799999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.34799999999999998</v>
+      <c r="E3" s="8">
+        <v>0.48</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G10" si="0">F3*E3</f>
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G3" s="12">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>9.4E-2</v>
+      </c>
+    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
+      <c r="A5" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.7E-2</v>
+      <c r="E5" s="8">
+        <v>3.1E-2</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
+      <c r="A8" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.39</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.68</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>1.36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="E9" s="8">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
+        <v>39281023</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <f>F10*E10</f>
+        <v>0.83</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
+      <c r="A11" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9">
-        <v>39281023</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.83</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.2</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <f>F11*E11</f>
-        <v>0.83</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" ref="G11:G22" si="1">F11*E11</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
+      <c r="A12" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.2</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.28</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:G23" si="1">F12*E12</f>
-        <v>0.4</v>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>82</v>
+      <c r="A13" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.28</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.46</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.5</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>9.4E-2</v>
+      </c>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1305,754 +2212,832 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8">
         <v>4.7E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="E17" s="9">
         <v>6.96</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>6.96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="E18" s="9">
         <v>14.73</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>14.73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="E19" s="9">
         <v>0.83</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="E20" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="E21" s="9">
         <v>0.21</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="E22" s="9">
         <v>0.15</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="13">
+        <f>F23*E23</f>
+        <v>1.84</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4">
-        <f>F24*E24</f>
-        <v>1.84</v>
+        <v>92</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" ref="G24:G34" si="2">F24*E24</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="5">
+        <v>61301611121</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.29</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="2"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="E28" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="5">
+        <v>181</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="9">
+        <v>14.28</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="2"/>
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="9">
         <v>0.15</v>
       </c>
-      <c r="F26" s="6">
-        <v>6</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="14" t="s">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="B32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="11">
-        <v>61301611121</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1.29</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="C32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="D32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="18">
-        <v>181</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="6">
-        <v>14.28</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="E32" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="15">
+        <v>116</v>
+      </c>
+      <c r="E33" s="9">
         <v>0.27</v>
       </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="15">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>118</v>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.28999999999999998</v>
+        <v>149</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="2"/>
+        <v>0.73</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G35">
-        <f>SUM(G3:G34)</f>
-        <v>58.129000000000005</v>
+      <c r="A35" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23">
+        <f>SUM(G2:G34)</f>
+        <v>59.919000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="6">
+        <v>86</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="9">
         <v>0.8</v>
       </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <f>E38*F38</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="6">
+        <v>99</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="9">
         <v>0.15</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="4">
         <v>6</v>
       </c>
-      <c r="G39" s="6">
-        <v>0.9</v>
+      <c r="G39" s="9">
+        <f t="shared" ref="G39:G49" si="3">E39*F39</f>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="6">
+        <v>90</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="9">
         <v>0.33</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="6">
+        <v>95</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="9">
         <v>22.01</v>
       </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="3"/>
         <v>22.01</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="7">
+        <v>95</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="3">
         <v>643814</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="9">
         <v>4.54</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="9">
+        <f t="shared" si="3"/>
         <v>9.08</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="7">
+        <v>95</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="3">
         <v>643075</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="9">
         <v>1.31</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="6">
-        <v>2.61</v>
+      <c r="G43" s="9">
+        <f t="shared" si="3"/>
+        <v>2.62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>132</v>
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="3"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="3"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F44" s="15">
-        <v>1</v>
-      </c>
-      <c r="G44" s="15">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="D48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F45" s="15">
-        <v>1</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="F46" s="15">
-        <v>1</v>
-      </c>
-      <c r="G46" s="15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="E48" s="9">
         <v>1.56</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="3"/>
         <v>1.56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="9">
         <v>0.44</v>
       </c>
-      <c r="F48" s="15">
-        <v>1</v>
-      </c>
-      <c r="G48" s="15">
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="3"/>
         <v>0.44</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="28">
+        <f>SUM(G38:G49)</f>
+        <v>41.42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D14" r:id="rId17"/>
-    <hyperlink ref="D15" r:id="rId18"/>
-    <hyperlink ref="D21" r:id="rId19"/>
-    <hyperlink ref="D22" r:id="rId20"/>
-    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="D14" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
     <hyperlink ref="D24" r:id="rId22"/>
-    <hyperlink ref="D25" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D28" r:id="rId25" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf"/>
-    <hyperlink ref="D38" r:id="rId26" display="http://www.ti.com/lit/ds/symlink/sn74hc595.pdf"/>
-    <hyperlink ref="D40" r:id="rId27" display="http://www.vishay.com/docs/45171/kseries.pdf"/>
-    <hyperlink ref="D39" r:id="rId28"/>
-    <hyperlink ref="D42" r:id="rId29" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
-    <hyperlink ref="D43" r:id="rId30" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
-    <hyperlink ref="D27" r:id="rId31" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf"/>
-    <hyperlink ref="D34" r:id="rId32" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf"/>
-    <hyperlink ref="D33" r:id="rId33" display="https://cdn.harwin.com/pdfs/M20-976.pdf"/>
-    <hyperlink ref="D32" r:id="rId34" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
-    <hyperlink ref="D31" r:id="rId35" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
-    <hyperlink ref="D30" r:id="rId36" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf"/>
-    <hyperlink ref="D46" r:id="rId37" display="https://www.onsemi.com/pub/Collateral/PZT3904-D.pdf"/>
-    <hyperlink ref="D44" r:id="rId38" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
-    <hyperlink ref="D45" r:id="rId39" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
-    <hyperlink ref="D26" r:id="rId40" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
-    <hyperlink ref="D47" r:id="rId41" display="https://www.bourns.com/docs/Product-Datasheets/3362.pdf"/>
-    <hyperlink ref="D48" r:id="rId42" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=881545&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D27" r:id="rId24" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf"/>
+    <hyperlink ref="D40" r:id="rId25" display="http://www.vishay.com/docs/45171/kseries.pdf"/>
+    <hyperlink ref="D39" r:id="rId26"/>
+    <hyperlink ref="D42" r:id="rId27" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D43" r:id="rId28" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D26" r:id="rId29" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf"/>
+    <hyperlink ref="D29" r:id="rId30" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf"/>
+    <hyperlink ref="D45" r:id="rId31" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
+    <hyperlink ref="D23" r:id="rId32"/>
+    <hyperlink ref="D25" r:id="rId33" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
+    <hyperlink ref="D33" r:id="rId34" display="https://cdn.harwin.com/pdfs/M20-976.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+  <tableParts count="2">
+    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
+++ b/internal_env_board/internal_env_board2/internal_env_board_with_LCD_BOM.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Business\ARVP\au_hardware\internal_env_board\internal_env_board2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b59mi\Documents\Business\ARVP\au_hardware\internal_env_board\internal_env_board2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Board Components" sheetId="1" r:id="rId1"/>
+    <sheet name="Parts for Testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>Part Description</t>
   </si>
@@ -531,6 +532,12 @@
   </si>
   <si>
     <t xml:space="preserve">Part Description </t>
+  </si>
+  <si>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>INT_ENV</t>
   </si>
 </sst>
 </file>
@@ -578,7 +585,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -666,28 +673,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -703,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -728,53 +713,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+  <dxfs count="36">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -784,131 +747,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -951,6 +794,42 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -972,6 +851,26 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1014,91 +913,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1114,6 +928,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1124,7 +939,9 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1132,14 +949,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1149,7 +959,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1161,20 +975,59 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1186,6 +1039,30 @@
           <color auto="1"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1209,91 +1086,69 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1320,17 +1175,19 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1343,19 +1200,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1383,19 +1240,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1407,19 +1264,19 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1444,6 +1301,22 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1467,6 +1340,22 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1478,8 +1367,80 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1491,6 +1452,176 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
@@ -1498,16 +1629,15 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1524,37 +1654,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G35" totalsRowCount="1" headerRowDxfId="21" headerRowBorderDxfId="29" tableBorderDxfId="30">
-  <autoFilter ref="A1:G35"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Schematic Reference Number" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="Part Description" dataDxfId="27" totalsRowDxfId="19"/>
-    <tableColumn id="3" name="Manufacturer Part Number" dataDxfId="26" totalsRowDxfId="18"/>
-    <tableColumn id="4" name="Datasheet" dataDxfId="25" totalsRowDxfId="17" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="Price" dataDxfId="24" totalsRowDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="23" totalsRowDxfId="15"/>
-    <tableColumn id="7" name="Total Cost" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="14" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H35" totalsRowCount="1" headerRowDxfId="35" totalsRowDxfId="15" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:H34"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Schematic Reference Number" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Part Description" dataDxfId="31" totalsRowDxfId="22"/>
+    <tableColumn id="3" name="Manufacturer Part Number" dataDxfId="30" totalsRowDxfId="21"/>
+    <tableColumn id="4" name="Datasheet" dataDxfId="29" totalsRowDxfId="20" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="Price" dataDxfId="28" totalsRowDxfId="19" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="27" totalsRowDxfId="18"/>
+    <tableColumn id="7" name="Total Cost" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="17" dataCellStyle="Currency">
       <calculatedColumnFormula>F2*E2</calculatedColumnFormula>
       <totalsRowFormula>SUM(G2:G34)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="8" name="Customer Reference" dataDxfId="25" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A37:G50" totalsRowCount="1">
-  <autoFilter ref="A37:G50"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Components for Testing" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Part Description " dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Manufacturer Part Number" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Datasheet" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="Price" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Total Cost" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Currency">
-      <totalsRowFormula>SUM(G38:G49)</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H14" totalsRowCount="1">
+  <autoFilter ref="A1:H13"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Components for Testing" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Part Description " dataDxfId="11" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="Manufacturer Part Number" dataDxfId="9" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Datasheet" dataDxfId="7" totalsRowDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="Price" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Total Cost" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="2" dataCellStyle="Currency">
+      <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(G2:G13)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="8" name="Customer Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1823,12 +1956,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,9 +1973,10 @@
     <col min="5" max="5" width="12.140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>164</v>
       </c>
@@ -1864,8 +1998,11 @@
       <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
@@ -1885,11 +2022,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G9" si="0">F2*E2</f>
+        <f>F2*E2</f>
         <v>0.34799999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -1909,11 +2049,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" si="0"/>
+        <f>F3*E3</f>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>69</v>
       </c>
@@ -1933,11 +2076,14 @@
         <v>2</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="0"/>
+        <f>F4*E4</f>
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>72</v>
       </c>
@@ -1957,11 +2103,14 @@
         <v>2</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="0"/>
+        <f>F5*E5</f>
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>73</v>
       </c>
@@ -1981,11 +2130,14 @@
         <v>1</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="0"/>
+        <f>F6*E6</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
@@ -2005,11 +2157,14 @@
         <v>2</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="0"/>
+        <f>F7*E7</f>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>85</v>
       </c>
@@ -2029,11 +2184,14 @@
         <v>2</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="0"/>
+        <f>F8*E8</f>
         <v>1.36</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>81</v>
       </c>
@@ -2053,11 +2211,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="0"/>
+        <f>F9*E9</f>
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
@@ -2080,8 +2241,11 @@
         <f>F10*E10</f>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
@@ -2101,11 +2265,14 @@
         <v>2</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ref="G11:G22" si="1">F11*E11</f>
+        <f>F11*E11</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>80</v>
       </c>
@@ -2125,11 +2292,14 @@
         <v>2</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="1"/>
+        <f>F12*E12</f>
         <v>2.56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
@@ -2149,11 +2319,14 @@
         <v>2</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="1"/>
+        <f>F13*E13</f>
         <v>0.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
@@ -2173,11 +2346,14 @@
         <v>1</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="1"/>
+        <f>F14*E14</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>74</v>
       </c>
@@ -2197,11 +2373,14 @@
         <v>2</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="1"/>
+        <f>F15*E15</f>
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>76</v>
       </c>
@@ -2221,11 +2400,14 @@
         <v>1</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" si="1"/>
+        <f>F16*E16</f>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
@@ -2245,11 +2427,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="1"/>
+        <f>F17*E17</f>
         <v>6.96</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>66</v>
       </c>
@@ -2269,11 +2454,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="1"/>
+        <f>F18*E18</f>
         <v>14.73</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>66</v>
       </c>
@@ -2293,11 +2481,14 @@
         <v>1</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="1"/>
+        <f>F19*E19</f>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2317,11 +2508,14 @@
         <v>2</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="1"/>
+        <f>F20*E20</f>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>61</v>
       </c>
@@ -2341,11 +2535,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="1"/>
+        <f>F21*E21</f>
         <v>0.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>75</v>
       </c>
@@ -2365,11 +2562,14 @@
         <v>1</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="1"/>
+        <f>F22*E22</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>82</v>
       </c>
@@ -2392,8 +2592,11 @@
         <f>F23*E23</f>
         <v>1.84</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
@@ -2413,11 +2616,14 @@
         <v>1</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" ref="G24:G34" si="2">F24*E24</f>
+        <f>F24*E24</f>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>87</v>
       </c>
@@ -2437,11 +2643,14 @@
         <v>6</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="2"/>
+        <f>F25*E25</f>
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>88</v>
       </c>
@@ -2461,11 +2670,14 @@
         <v>1</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="2"/>
+        <f>F26*E26</f>
         <v>5.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>89</v>
       </c>
@@ -2485,11 +2697,14 @@
         <v>1</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="2"/>
+        <f>F27*E27</f>
         <v>1.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>90</v>
       </c>
@@ -2509,11 +2724,14 @@
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="2"/>
+        <f>F28*E28</f>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>108</v>
       </c>
@@ -2533,11 +2751,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="2"/>
+        <f>F29*E29</f>
         <v>14.28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>111</v>
       </c>
@@ -2557,11 +2778,14 @@
         <v>1</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" si="2"/>
+        <f>F30*E30</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>112</v>
       </c>
@@ -2581,11 +2805,14 @@
         <v>1</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="2"/>
+        <f>F31*E31</f>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>139</v>
       </c>
@@ -2605,11 +2832,14 @@
         <v>1</v>
       </c>
       <c r="G32" s="13">
-        <f t="shared" si="2"/>
+        <f>F32*E32</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>113</v>
       </c>
@@ -2629,11 +2859,14 @@
         <v>1</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" si="2"/>
+        <f>F33*E33</f>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>146</v>
       </c>
@@ -2653,349 +2886,31 @@
         <v>1</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="2"/>
+        <f>F34*E34</f>
         <v>0.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="H34" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27">
         <f>SUM(G2:G34)</f>
         <v>59.919000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9">
-        <f>E38*F38</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="F39" s="4">
-        <v>6</v>
-      </c>
-      <c r="G39" s="9">
-        <f t="shared" ref="G39:G49" si="3">E39*F39</f>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9">
-        <f t="shared" si="3"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="9">
-        <v>22.01</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="3"/>
-        <v>22.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="3">
-        <v>643814</v>
-      </c>
-      <c r="E42" s="9">
-        <v>4.54</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="9">
-        <f t="shared" si="3"/>
-        <v>9.08</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="3">
-        <v>643075</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1.31</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="9">
-        <f t="shared" si="3"/>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9">
-        <f t="shared" si="3"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="9">
-        <f t="shared" si="3"/>
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="9">
-        <f t="shared" si="3"/>
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
-        <f t="shared" si="3"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
-        <f t="shared" si="3"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9">
-        <f t="shared" si="3"/>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="28">
-        <f>SUM(G38:G49)</f>
-        <v>41.42</v>
-      </c>
-    </row>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -3022,22 +2937,408 @@
     <hyperlink ref="D24" r:id="rId22"/>
     <hyperlink ref="D28" r:id="rId23"/>
     <hyperlink ref="D27" r:id="rId24" display="https://katalog.we-online.de/em/datasheet/6130xx11121.pdf"/>
-    <hyperlink ref="D40" r:id="rId25" display="http://www.vishay.com/docs/45171/kseries.pdf"/>
-    <hyperlink ref="D39" r:id="rId26"/>
-    <hyperlink ref="D42" r:id="rId27" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
-    <hyperlink ref="D43" r:id="rId28" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
-    <hyperlink ref="D26" r:id="rId29" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf"/>
-    <hyperlink ref="D29" r:id="rId30" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf"/>
-    <hyperlink ref="D45" r:id="rId31" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
-    <hyperlink ref="D23" r:id="rId32"/>
-    <hyperlink ref="D25" r:id="rId33" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
-    <hyperlink ref="D33" r:id="rId34" display="https://cdn.harwin.com/pdfs/M20-976.pdf"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://www.nidec-copal-electronics.com/e/catalog/trimmer/sm-42&amp;sm-43.pdf"/>
+    <hyperlink ref="D29" r:id="rId26" display="https://cdn-shop.adafruit.com/product-files/181/p181.pdf"/>
+    <hyperlink ref="D23" r:id="rId27"/>
+    <hyperlink ref="D25" r:id="rId28" display="http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf"/>
+    <hyperlink ref="D33" r:id="rId29" display="https://cdn.harwin.com/pdfs/M20-976.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
-  <tableParts count="2">
-    <tablePart r:id="rId36"/>
-    <tablePart r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
+  <tableParts count="1">
+    <tablePart r:id="rId31"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <f>E2*F2</f>
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9">
+        <f>E3*F3</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <f>E4*F4</f>
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="9">
+        <v>22.01</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <f>E5*F5</f>
+        <v>22.01</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="3">
+        <v>643814</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.54</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <f>E6*F6</f>
+        <v>9.08</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3">
+        <v>643075</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <f>E7*F7</f>
+        <v>2.62</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <f>E8*F8</f>
+        <v>0.17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <f>E9*F9</f>
+        <v>0.83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <f>E10*F10</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <f>E11*F11</f>
+        <v>1.56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <f>E12*F12</f>
+        <v>1.56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <f>E13*F13</f>
+        <v>0.44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="22">
+        <f>SUM(G2:G13)</f>
+        <v>41.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="http://www.vishay.com/docs/45171/kseries.pdf"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643814&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=643075&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://www.seielect.com/Catalog/SEI-CF_CFM.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>